--- a/ResultadoEleicoesDistritos/R. A. AÇORES_VELAS.xlsx
+++ b/ResultadoEleicoesDistritos/R. A. AÇORES_VELAS.xlsx
@@ -597,64 +597,64 @@
         <v>1497</v>
       </c>
       <c r="H2" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I2" t="n">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="J2" t="n">
-        <v>599</v>
+        <v>626</v>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L2" t="n">
-        <v>186</v>
+        <v>155</v>
       </c>
       <c r="M2" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N2" t="n">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
       </c>
       <c r="R2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S2" t="n">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="T2" t="n">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="U2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V2" t="n">
-        <v>990</v>
+        <v>969</v>
       </c>
       <c r="W2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X2" t="n">
-        <v>935</v>
+        <v>968</v>
       </c>
       <c r="Y2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z2" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AA2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
